--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560341/JX560341_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560341/JX560341_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89296958308</v>
+        <v>45441.83323231787</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1735_1735del']</t>
+          <t>['1731_1807insccggcttgtttcaagtagaggtccttacgcgtcccaggatcccatccgtcatagatcagcagcccatcatcgcttt', '1786_1832del', '1670_1795insggacatagtaaggtgcctcctgggcaggtctgagagcgaccgacacataatgagcttccgctggcgatggataggtgacaagggcgtcaagctccatataatgcagcgtagccgataaaaaggaa', '1693_1758insatgggtagtgaactggtgtgtcctggcctggtaggtaattggtacgtctaggccgacgctactaa', '1699_1746instcctctggactatcctgagttcatagtgaactcccgcaggcccgtgt']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89296960662</v>
+        <v>45441.83323234102</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['162_163del']</t>
+          <t>['229_336insgcatatcgatacaagttttgcttggccgtaaccagtccccggaagcgctggacccgtcggcaggtgcactgaaatgacccatttggcgtcccacggcagatcgagca', '219_292insgtcttccccgatccacggacgttattggtacggggtcacggtgtaatttggttcgagatactcacctcagtag', '194_311del', '235_257insggtggttgagagaaccatgact', '201_238del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89296963013</v>
+        <v>45441.83323235838</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2258c&gt;a']</t>
+          <t>['2303_2434del', '2301_2352del', '2268_2305del', '2296_2407insgatatgttatactactagctaaggagcaagtggctaaggaaaagtggccacgcgctgggagtatcgggcactgtaaaccttgttcagggccaaagtccgattatctcctca', '2244_2387insgtgttgtaagtgcaaaaaccttgaaatcagaagagtagtggctctgtttcggcagaataagccctggatttacgtggccataagccccccacaactatttggttcgagaacgaattgttaagttgcgatctgtggagcttctg']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89296964752</v>
+        <v>45441.83323248262</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1724_1725del']</t>
+          <t>['1658_1738del', '1713_1790del', '1724_1779inscagcgctcctgggatgagaaatgagccgacagagctaggtacgattcttaccttt', '1759_1847insgatagtcttatggtctttttgttcatatgcaaaattatcatagtagtggtgcaggtggttgatcagacttagcgtactgattatttcg', '1737_1883del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['247a&gt;g']</t>
+          <t>['171_217instgacagattattttgtggcgggcctgcacgctgctacgacgctgaa', '168_270del', '245_306insatctttgcgcgcgaccctcactcgccacgcccgcgaaacggcttacgatcctcatttgaaa', '220_333del', '190_256del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.8929696649</v>
+        <v>45441.83323251155</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1704_1708del']</t>
+          <t>['1575_1685instaggttctacaataggtccacatcctcaatttaacggttgtcccattaagtgttagtaagcggtcagaacatttatccagaatattcggggcatacagcccttattccgt', '1616_1732del', '1715_1766del', '1655_1735insatggccagcatccagctgagggtctggacatataccagtaaggcccgccggttgatggtaggagctatcgcggtgacctt', '1664_1741del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['2274_2275del']</t>
+          <t>['2322_2373del', '2303_2440del', '2268_2347del', '2322_2387insggactgtcattatagtatattggtctctgagacgctagctaatttcgcatatctccattaatctc', '2256_2364insgttaactgttgccgtattcccactaacagtcggactcgcacatgatgctcagtaaccgactacgcactcgggccaaccactcgcggtaacccgtccgtggacatgtcc']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89296968226</v>
+        <v>45441.83323253469</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['224g&gt;c']</t>
+          <t>['238_347inscatgtttttgtttcgaggactttggacgactattcttatatagttaactttccacttggaccaacttcgtaaacgtatttaaccccgcccggaattctgacgagttggt', '205_271insaagctgtcaactaccaaagctccagactgacatggccatgaacaaaagcctagttcctgattaatt', '204_338del', '158_270insatgatatcccgtcactgctccataacactgcaattgttatcagctcacataggcaaggtgtggcgaatcagtccggataagcgtacgtgaaagtacacataatttcactaac', '210_254insgctcgctgcagcagccgatccaacaatggtctcgtctgtgaaag']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['2256_2261insccaag']</t>
+          <t>['2269_2394insgtcaatggaaagacatgcagtatgaattatcaagccgacgcttagctgtaaatgagggccaatcgcacgggcgtggcagaacggtcatactatcagccccctttctccaacccaccgaatgacca', '2291_2356insggaggttaggcaaatgcgaaaggtgactgtttccatccgtgccaacatggtgcatgggatgatca', '2329_2416del', '2283_2348del', '2302_2329del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89296969961</v>
+        <v>45441.83323255205</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1684_1686del']</t>
+          <t>['1639_1648del', '1678_1766insacaaacatcccgttttctttacgcagggcattagcggcatgtaatggcttcaggtgctaccgagaccagtacgcagggtgttgccgag', '1802_1951insatctgccatcaagaacgtgatgtgaagggcgcccgtagtacagctgaaataagggcctacaaggctaacttagcacgaagccatccacgatgtaacgtggacagttatttatatctattgcagcagtctagacatccgataatcgaccg', '1634_1772instcgtcaagtagcccttgttatagctaatagccgccttcccgttttccatagcaaacatgcgaagaccctcgcctctgggcgctcacagtggactatctcaagttagtcgctggcaaagagactcttattctataacac', '1629_1677inscacagatgttgtgggcgttcgatttagtaggctttaatgcgataggcg']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['165_166insa']</t>
+          <t>['236_332del', '203_285del', '248_328inscagcaccaaaagacacaatttaaattcagttcttgtactcccgggggcaaggtaatccaggatcactctccccgtgagtg', '179_327insaaaatgtccggcgggccatttatgcctacccgtagagggctgtcgttcagctcggagcgtgtagttgtctattggatctcgtccgcacggtgtccggattgtatactaacagcggttgttgcgagggtatcgtatgtgtagtagaccg', '209_239del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['2316t&gt;a']</t>
+          <t>['2240_2333del', '2271_2318inscgctcgtaaaactgaacaatggtacttcgtcgtccttaacagataat', '2323_2369insccaagcgaattttaataaagctgcgatgcttaaccactattccact', '2270_2348del', '2285_2366insccagaggggccttctcgcagcctggggttctctgcggcctgagccagaatgcactttacgcgataattcaaccacgatttg']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89296971697</v>
+        <v>45441.83323257521</v>
       </c>
     </row>
   </sheetData>
